--- a/4.1_Generating_a_random_signed_graph/performance_check/performance_check_Erdős_Rényi.xlsx
+++ b/4.1_Generating_a_random_signed_graph/performance_check/performance_check_Erdős_Rényi.xlsx
@@ -416,7 +416,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,10 +446,32 @@
         <v>50</v>
       </c>
       <c r="B2" s="1" t="n">
-        <v>8.414351851851851e-09</v>
+        <v>1.157407407407407e-08</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>2.236458333333333e-06</v>
+        <v>2.233796296296296e-06</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" s="1" t="n">
+        <v>2.164351851851852e-06</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>10</v>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>1.493055555555556e-09</v>
+      </c>
+      <c r="C4" s="1" t="n">
+        <v>2.094537037037037e-06</v>
       </c>
     </row>
   </sheetData>

--- a/4.1_Generating_a_random_signed_graph/performance_check/performance_check_Erdős_Rényi.xlsx
+++ b/4.1_Generating_a_random_signed_graph/performance_check/performance_check_Erdős_Rényi.xlsx
@@ -416,7 +416,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,10 +468,43 @@
         <v>10</v>
       </c>
       <c r="B4" s="1" t="n">
-        <v>1.493055555555556e-09</v>
+        <v>0</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>2.094537037037037e-06</v>
+        <v>2.094907407407408e-06</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>15</v>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>1.157407407407407e-08</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>3.217592592592593e-06</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>15</v>
+      </c>
+      <c r="B6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>2.268518518518518e-06</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>15</v>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>2.210648148148148e-09</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>2.306111111111111e-06</v>
       </c>
     </row>
   </sheetData>

--- a/4.1_Generating_a_random_signed_graph/performance_check/performance_check_Erdős_Rényi.xlsx
+++ b/4.1_Generating_a_random_signed_graph/performance_check/performance_check_Erdős_Rényi.xlsx
@@ -416,7 +416,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,68 +443,178 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>50</v>
+        <v>500</v>
       </c>
       <c r="B2" s="1" t="n">
-        <v>1.157407407407407e-08</v>
+        <v>1.712962962962963e-06</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>2.233796296296296e-06</v>
+        <v>6.719907407407407e-05</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>8</v>
+        <v>1000</v>
       </c>
       <c r="B3" s="1" t="n">
-        <v>0</v>
+        <v>5.729166666666667e-06</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>2.164351851851852e-06</v>
+        <v>0.0002827662037037037</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>10</v>
+        <v>1500</v>
       </c>
       <c r="B4" s="1" t="n">
-        <v>0</v>
+        <v>1.327546296296296e-05</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>2.094907407407408e-06</v>
+        <v>0.0004686574074074074</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>15</v>
+        <v>2000</v>
       </c>
       <c r="B5" s="1" t="n">
-        <v>1.157407407407407e-08</v>
+        <v>2.305555555555555e-05</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>3.217592592592593e-06</v>
+        <v>0.0008003819444444445</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>15</v>
+        <v>2500</v>
       </c>
       <c r="B6" s="1" t="n">
-        <v>0</v>
+        <v>3.648148148148148e-05</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>2.268518518518518e-06</v>
+        <v>0.001220625</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>15</v>
+        <v>3000</v>
       </c>
       <c r="B7" s="1" t="n">
-        <v>2.210648148148148e-09</v>
+        <v>5.542824074074074e-05</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>2.306111111111111e-06</v>
+        <v>0.001754351851851852</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>3500</v>
+      </c>
+      <c r="B8" s="1" t="n">
+        <v>7.949074074074074e-05</v>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v>0.00229125</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>4000</v>
+      </c>
+      <c r="B9" s="1" t="n">
+        <v>0.0001017824074074074</v>
+      </c>
+      <c r="C9" s="1" t="n">
+        <v>0.002975497685185186</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>4500</v>
+      </c>
+      <c r="B10" s="1" t="n">
+        <v>0.0001420833333333333</v>
+      </c>
+      <c r="C10" s="1" t="n">
+        <v>0.003791631944444444</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>5000</v>
+      </c>
+      <c r="B11" s="1" t="n">
+        <v>0.0001731828703703704</v>
+      </c>
+      <c r="C11" s="1" t="n">
+        <v>0.00489412037037037</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>500</v>
+      </c>
+      <c r="B12" s="1" t="n">
+        <v>1.828703703703704e-06</v>
+      </c>
+      <c r="C12" s="1" t="n">
+        <v>8.06712962962963e-05</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>1000</v>
+      </c>
+      <c r="B13" s="1" t="n">
+        <v>5.960648148148149e-06</v>
+      </c>
+      <c r="C13" s="1" t="n">
+        <v>0.0002008796296296297</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>1500</v>
+      </c>
+      <c r="B14" s="1" t="n">
+        <v>1.328703703703704e-05</v>
+      </c>
+      <c r="C14" s="1" t="n">
+        <v>0.0005238541666666667</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>2000</v>
+      </c>
+      <c r="B15" s="1" t="n">
+        <v>2.380787037037037e-05</v>
+      </c>
+      <c r="C15" s="1" t="n">
+        <v>0.0007665856481481482</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>2500</v>
+      </c>
+      <c r="B16" s="1" t="n">
+        <v>3.614583333333334e-05</v>
+      </c>
+      <c r="C16" s="1" t="n">
+        <v>0.001234479166666667</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>3000</v>
+      </c>
+      <c r="B17" s="1" t="n">
+        <v>5.376165509259259e-05</v>
+      </c>
+      <c r="C17" s="1" t="n">
+        <v>0.001776649918981482</v>
       </c>
     </row>
   </sheetData>
